--- a/tesi/documenti/1 - riepilogo_testAnomalie.xlsx
+++ b/tesi/documenti/1 - riepilogo_testAnomalie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>Categoria</t>
   </si>
@@ -98,19 +98,44 @@
   </si>
   <si>
     <t>Superata soglia mensile: {Period('2024-06', 'M'): -50080.0, Period('2024-07', 'M'): -5080.0, Period('2024-09', 'M'): -12080.0}</t>
+  </si>
+  <si>
+    <t>generatore automatico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Castellar"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,49 +158,174 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Castellar"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Book Antiqua"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -191,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:F15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="B2:G16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B2:G16"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Categoria" dataDxfId="7"/>
     <tableColumn id="2" name="Dettaglio" dataDxfId="6"/>
@@ -201,7 +351,7 @@
     <tableColumn id="5" name="Esito" dataDxfId="3"/>
     <tableColumn id="6" name="Violazione" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -492,315 +642,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" style="1"/>
+    <col min="2" max="2" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:7" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>45451</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="5">
+        <v>4.5450999999999997</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>45451</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="5">
+        <v>4.5450999999999997</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
-        <v>45451</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="5">
+        <v>4.5450999999999997</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>69277</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="5">
+        <v>6.9276999999999997</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
-        <v>69277</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="5">
+        <v>6.9276999999999997</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
-        <v>69277</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="5">
+        <v>6.9276999999999997</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
-        <v>4543</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="5">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <v>6277</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="5">
+        <v>6.2770000000000001</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
-        <v>23503</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="5">
+        <v>2.3502999999999998</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
-        <v>69534</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="5">
+        <v>6.9534000000000002</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
-        <v>69411</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="5">
+        <v>6.9410999999999996</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
-        <v>38373</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="5">
+        <v>3.8372999999999999</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2">
-        <v>69512</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="5">
+        <v>6.9512</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2">
-        <v>69511</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="5">
+        <v>6.9511000000000003</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="F3:F16">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Anomalia">
+      <formula>NOT(ISERROR(SEARCH("Anomalia",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="ok">
+      <formula>NOT(ISERROR(SEARCH("ok",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>